--- a/Tutorial 6 matrices.xlsx
+++ b/Tutorial 6 matrices.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baral\Google Drive\2018\Semester 1\CBI 310\Tutorials\Tutorial 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0885BF6A-6E2C-4DEF-9C40-E1DD765FBF69}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9F0B6C-8042-4670-B5DE-87DACE57A743}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" xr2:uid="{B947DB29-623F-4253-BA97-483D5D9B23A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1695762-CA7C-4C4B-A4AC-591D2294ACDC}">
   <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="N74" sqref="N74"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1086,7 +1086,7 @@
         <v>0.5417142857142857</v>
       </c>
       <c r="K30" s="6"/>
-      <c r="L30" s="6">
+      <c r="L30" s="7">
         <f>+J30/$J$30</f>
         <v>1</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>0.4</v>
       </c>
       <c r="K31" s="6"/>
-      <c r="L31" s="6">
+      <c r="L31" s="7">
         <f t="shared" ref="L31:L33" si="1">+J31/$J$30</f>
         <v>0.73839662447257393</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>0.10971428571428561</v>
       </c>
       <c r="K32" s="6"/>
-      <c r="L32" s="6">
+      <c r="L32" s="7">
         <f t="shared" si="1"/>
         <v>0.20253164556962006</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>0.28285714285714286</v>
       </c>
       <c r="K33" s="6"/>
-      <c r="L33" s="6">
+      <c r="L33" s="7">
         <f t="shared" si="1"/>
         <v>0.52215189873417722</v>
       </c>
